--- a/spreadsheets/VF_assets_example2.xlsx
+++ b/spreadsheets/VF_assets_example2.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\DATI\STIIMA-ITIA\PROGETTI\ErasmusPlus_VLFT\DEVS_VLFT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\difactory\repository\spreadsheets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1269E9F3-26F0-4AE8-89F8-204E490A533B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F618D448-3A4D-4571-90E6-BA986F893C33}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12810" tabRatio="484" activeTab="1" xr2:uid="{F487811F-0527-4F45-AB48-04B8DCD52C96}"/>
   </bookViews>
@@ -27,9 +27,6 @@
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="500" uniqueCount="58">
-  <si>
-    <t>http://www.ontoeng.com/factory#MachineToolType</t>
-  </si>
   <si>
     <t>parentObject</t>
   </si>
@@ -142,9 +139,6 @@
     <t>Trolley.1</t>
   </si>
   <si>
-    <t>http://www.ontoeng.com/factory#MachineTool</t>
-  </si>
-  <si>
     <t>JSON file text</t>
   </si>
   <si>
@@ -200,6 +194,12 @@
   </si>
   <si>
     <t>https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement</t>
+  </si>
+  <si>
+    <t>https://w3id.org/ontoeng/factory#MachineToolType</t>
+  </si>
+  <si>
+    <t>https://w3id.org/ontoeng/factory#MachineTool</t>
   </si>
 </sst>
 </file>
@@ -950,38 +950,38 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B1" s="21" t="str">
         <f>CONCATENATE(Context!D1,B3,Context!E1,B4,Context!F1,B5,"""},",Context!G1,Assets!AU201,Context!H1,Assets!AV201,"]}")</f>
-        <v>{"context": { "UnitOfMeasureScale": 0.01,"Zup": false, "RepoPath": "https://difactory.github.io/repository/"},"scene": ["default_building","WS01","WS02","WS03","Trolley.1","Trolley.2","Trolley.3"], "assets": [{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}]}</v>
+        <v>{"context": { "UnitOfMeasureScale": 0.01,"Zup": false, "RepoPath": "https://difactory.github.io/repository/"},"scene": ["default_building","WS01","WS02","WS03","Trolley.1","Trolley.2","Trolley.3"], "assets": [{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}]}</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D1" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="F1" s="41" t="s">
         <v>43</v>
       </c>
-      <c r="E1" s="42" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>45</v>
-      </c>
       <c r="G1" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="41" t="s">
         <v>12</v>
       </c>
-      <c r="H1" s="41" t="s">
-        <v>13</v>
-      </c>
       <c r="I1" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="22" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B3" s="25">
         <v>0.01</v>
@@ -989,18 +989,18 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="23" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
   </sheetData>
@@ -1017,7 +1017,7 @@
       <selection activeCell="A4" sqref="A4:A54"/>
       <selection pane="topRight" activeCell="A4" sqref="A4:A54"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4:A54"/>
-      <selection pane="bottomRight" activeCell="D1" sqref="D1:D1048576"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="13.9" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1055,150 +1055,150 @@
   <sheetData>
     <row r="1" spans="1:55" ht="13.9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="36" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="37" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="38" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>47</v>
-      </c>
-      <c r="C1" s="38" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" s="38" t="s">
+      <c r="E1" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="E1" s="38" t="s">
+      <c r="F1" s="38" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" s="38" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" s="47" t="s">
         <v>6</v>
-      </c>
-      <c r="F1" s="38" t="s">
-        <v>25</v>
-      </c>
-      <c r="G1" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="H1" s="47" t="s">
-        <v>7</v>
       </c>
       <c r="I1" s="48"/>
       <c r="J1" s="49"/>
       <c r="K1" s="50" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="L1" s="50"/>
       <c r="M1" s="50"/>
       <c r="N1" s="38" t="s">
+        <v>14</v>
+      </c>
+      <c r="O1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="P1" s="38" t="s">
+        <v>9</v>
+      </c>
+      <c r="Q1" s="38" t="s">
         <v>15</v>
       </c>
-      <c r="O1" s="38" t="s">
-        <v>1</v>
-      </c>
-      <c r="P1" s="38" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="38" t="s">
+      <c r="R1" s="38" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="38" t="s">
+      <c r="S1" s="38" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="38" t="s">
+      <c r="T1" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="38" t="s">
+      <c r="U1" s="47" t="s">
         <v>19</v>
-      </c>
-      <c r="U1" s="47" t="s">
-        <v>20</v>
       </c>
       <c r="V1" s="49"/>
       <c r="W1" s="47" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="X1" s="49"/>
       <c r="Y1" s="39" t="s">
+        <v>21</v>
+      </c>
+      <c r="Z1" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="Z1" s="40" t="s">
-        <v>23</v>
-      </c>
       <c r="AB1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AC1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AD1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AE1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AF1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AG1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AH1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AI1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AJ1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AK1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AL1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AM1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AN1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AO1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AP1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AQ1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AR1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AS1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AT1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AU1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="AV1" s="46" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="BC1" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:55" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B2" s="30">
         <v>1</v>
       </c>
       <c r="C2" s="31" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D2" s="32" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E2" s="32"/>
       <c r="F2" s="10"/>
@@ -1304,7 +1304,7 @@
         <v/>
       </c>
       <c r="AS2" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT2" s="45" t="str">
         <f>CONCATENATE(AB2,AC2,AD2,AE2,AF2,AG2,AH2,AI2,AJ2,AK2,AL2,AM2,AN2,AO2,AP2,AQ2,AR2,AS2)</f>
@@ -1319,31 +1319,31 @@
         <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]}</v>
       </c>
       <c r="AW2" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX2" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BC2" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:55" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="28" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B3" s="13">
         <v>0</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E3" s="3"/>
       <c r="F3" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="G3" s="11">
         <v>0.01</v>
@@ -1378,7 +1378,7 @@
       </c>
       <c r="AD3" s="45" t="str">
         <f t="shared" ref="AD3:AD66" si="2">IF(D3&lt;&gt;"",CONCATENATE(", """,D$1,""": """,D3,""""),"")</f>
-        <v>, "type": "http://www.ontoeng.com/factory#MachineToolType"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#MachineToolType"</v>
       </c>
       <c r="AE3" s="45" t="str">
         <f t="shared" ref="AE3:AE66" si="3">IF(E3&lt;&gt;"",CONCATENATE(", """,E$1,""": """,E3,""""),"")</f>
@@ -1437,11 +1437,11 @@
         <v/>
       </c>
       <c r="AS3" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT3" s="45" t="str">
         <f t="shared" ref="AT3:AT66" si="17">CONCATENATE(AB3,AC3,AD3,AE3,AF3,AG3,AH3,AI3,AJ3,AK3,AL3,AM3,AN3,AO3,AP3,AQ3,AR3,AS3)</f>
-        <v>{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]}</v>
+        <v>{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]}</v>
       </c>
       <c r="AU3" s="14" t="str">
         <f t="shared" ref="AU3:AU66" si="18">IF(B3=1,CONCATENATE(IF(AU2&lt;&gt;"",CONCATENATE(AU2,","),""),"""",A3,""""),AU2)</f>
@@ -1449,31 +1449,31 @@
       </c>
       <c r="AV3" s="7" t="str">
         <f t="shared" ref="AV3:AV66" si="19">IF(A3&lt;&gt;"",CONCATENATE(IF(AV2&lt;&gt;"",CONCATENATE(AV2,","),""),AT3),AV2)</f>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]}</v>
       </c>
       <c r="AW3" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX3" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:55" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="28" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B4" s="13">
         <v>0</v>
       </c>
       <c r="C4" s="15" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G4" s="11">
         <v>0.01</v>
@@ -1508,7 +1508,7 @@
       </c>
       <c r="AD4" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#MachineToolType"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#MachineToolType"</v>
       </c>
       <c r="AE4" s="45" t="str">
         <f t="shared" si="3"/>
@@ -1567,11 +1567,11 @@
         <v/>
       </c>
       <c r="AS4" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT4" s="45" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]}</v>
+        <v>{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]}</v>
       </c>
       <c r="AU4" s="14" t="str">
         <f t="shared" si="18"/>
@@ -1579,31 +1579,31 @@
       </c>
       <c r="AV4" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]}</v>
       </c>
       <c r="AW4" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX4" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:55" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="28" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B5" s="13">
         <v>0</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G5" s="11">
         <v>0.01</v>
@@ -1697,7 +1697,7 @@
         <v/>
       </c>
       <c r="AS5" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT5" s="45" t="str">
         <f t="shared" si="17"/>
@@ -1709,30 +1709,30 @@
       </c>
       <c r="AV5" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]}</v>
       </c>
       <c r="AW5" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX5" s="19" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:55" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B6" s="13">
         <v>1</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F6" s="3"/>
       <c r="G6" s="11"/>
@@ -1782,7 +1782,7 @@
       </c>
       <c r="AD6" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#MachineTool"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#MachineTool"</v>
       </c>
       <c r="AE6" s="45" t="str">
         <f t="shared" si="3"/>
@@ -1841,11 +1841,11 @@
         <v/>
       </c>
       <c r="AS6" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT6" s="45" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AU6" s="14" t="str">
         <f t="shared" si="18"/>
@@ -1853,30 +1853,30 @@
       </c>
       <c r="AV6" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX6" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:55" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B7" s="13">
         <v>1</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F7" s="3"/>
       <c r="G7" s="11"/>
@@ -1926,7 +1926,7 @@
       </c>
       <c r="AD7" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#MachineTool"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#MachineTool"</v>
       </c>
       <c r="AE7" s="45" t="str">
         <f t="shared" si="3"/>
@@ -1985,11 +1985,11 @@
         <v/>
       </c>
       <c r="AS7" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT7" s="45" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AU7" s="14" t="str">
         <f t="shared" si="18"/>
@@ -1997,30 +1997,30 @@
       </c>
       <c r="AV7" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX7" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:55" s="8" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="28" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B8" s="13">
         <v>1</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>38</v>
+        <v>57</v>
       </c>
       <c r="E8" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F8" s="3"/>
       <c r="G8" s="11"/>
@@ -2070,7 +2070,7 @@
       </c>
       <c r="AD8" s="45" t="str">
         <f t="shared" si="2"/>
-        <v>, "type": "http://www.ontoeng.com/factory#MachineTool"</v>
+        <v>, "type": "https://w3id.org/ontoeng/factory#MachineTool"</v>
       </c>
       <c r="AE8" s="45" t="str">
         <f t="shared" si="3"/>
@@ -2129,11 +2129,11 @@
         <v/>
       </c>
       <c r="AS8" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT8" s="45" t="str">
         <f t="shared" si="17"/>
-        <v>{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AU8" s="14" t="str">
         <f t="shared" si="18"/>
@@ -2141,28 +2141,28 @@
       </c>
       <c r="AV8" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX8" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:55" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="28" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B9" s="13">
         <v>1</v>
       </c>
       <c r="C9" s="15"/>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F9" s="3"/>
       <c r="G9" s="11"/>
@@ -2271,7 +2271,7 @@
         <v/>
       </c>
       <c r="AS9" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT9" s="45" t="str">
         <f t="shared" si="17"/>
@@ -2283,28 +2283,28 @@
       </c>
       <c r="AV9" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX9" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:55" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="28" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B10" s="13">
         <v>1</v>
       </c>
       <c r="C10" s="15"/>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F10" s="3"/>
       <c r="G10" s="11"/>
@@ -2413,7 +2413,7 @@
         <v/>
       </c>
       <c r="AS10" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT10" s="45" t="str">
         <f t="shared" si="17"/>
@@ -2425,25 +2425,25 @@
       </c>
       <c r="AV10" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW10" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:55" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="28" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B11" s="13">
         <v>1</v>
       </c>
       <c r="C11" s="15"/>
       <c r="D11" s="1" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F11" s="3"/>
       <c r="G11" s="11"/>
@@ -2552,7 +2552,7 @@
         <v/>
       </c>
       <c r="AS11" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT11" s="45" t="str">
         <f t="shared" ref="AT11" si="38">CONCATENATE(AB11,AC11,AD11,AE11,AF11,AG11,AH11,AI11,AJ11,AK11,AL11,AM11,AN11,AO11,AP11,AQ11,AR11,AS11)</f>
@@ -2564,10 +2564,10 @@
       </c>
       <c r="AV11" s="7" t="str">
         <f t="shared" ref="AV11" si="40">IF(A11&lt;&gt;"",CONCATENATE(IF(AV10&lt;&gt;"",CONCATENATE(AV10,","),""),AT11),AV10)</f>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW11" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:55" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2643,7 +2643,7 @@
         <v/>
       </c>
       <c r="AS12" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT12" s="45" t="str">
         <f t="shared" si="17"/>
@@ -2655,10 +2655,10 @@
       </c>
       <c r="AV12" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW12" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:55" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2734,7 +2734,7 @@
         <v/>
       </c>
       <c r="AS13" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT13" s="45" t="str">
         <f t="shared" si="17"/>
@@ -2746,10 +2746,10 @@
       </c>
       <c r="AV13" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW13" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:55" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2825,7 +2825,7 @@
         <v/>
       </c>
       <c r="AS14" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT14" s="45" t="str">
         <f t="shared" si="17"/>
@@ -2837,10 +2837,10 @@
       </c>
       <c r="AV14" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW14" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:55" s="9" customFormat="1" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -2916,7 +2916,7 @@
         <v/>
       </c>
       <c r="AS15" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT15" s="45" t="str">
         <f t="shared" si="17"/>
@@ -2928,10 +2928,10 @@
       </c>
       <c r="AV15" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW15" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:55" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3005,7 +3005,7 @@
         <v/>
       </c>
       <c r="AS16" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT16" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3017,10 +3017,10 @@
       </c>
       <c r="AV16" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW16" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3093,7 +3093,7 @@
         <v/>
       </c>
       <c r="AS17" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT17" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3105,10 +3105,10 @@
       </c>
       <c r="AV17" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW17" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3181,7 +3181,7 @@
         <v/>
       </c>
       <c r="AS18" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT18" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3193,10 +3193,10 @@
       </c>
       <c r="AV18" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW18" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3269,7 +3269,7 @@
         <v/>
       </c>
       <c r="AS19" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT19" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3281,10 +3281,10 @@
       </c>
       <c r="AV19" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW19" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3357,7 +3357,7 @@
         <v/>
       </c>
       <c r="AS20" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT20" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3369,10 +3369,10 @@
       </c>
       <c r="AV20" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW20" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="21" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3445,7 +3445,7 @@
         <v/>
       </c>
       <c r="AS21" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT21" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3457,10 +3457,10 @@
       </c>
       <c r="AV21" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW21" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3533,7 +3533,7 @@
         <v/>
       </c>
       <c r="AS22" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT22" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3545,10 +3545,10 @@
       </c>
       <c r="AV22" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW22" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3621,7 +3621,7 @@
         <v/>
       </c>
       <c r="AS23" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT23" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3633,10 +3633,10 @@
       </c>
       <c r="AV23" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW23" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="24" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3709,7 +3709,7 @@
         <v/>
       </c>
       <c r="AS24" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT24" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3721,10 +3721,10 @@
       </c>
       <c r="AV24" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW24" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3797,7 +3797,7 @@
         <v/>
       </c>
       <c r="AS25" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT25" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3809,10 +3809,10 @@
       </c>
       <c r="AV25" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW25" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3885,7 +3885,7 @@
         <v/>
       </c>
       <c r="AS26" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT26" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3897,10 +3897,10 @@
       </c>
       <c r="AV26" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW26" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -3973,7 +3973,7 @@
         <v/>
       </c>
       <c r="AS27" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT27" s="45" t="str">
         <f t="shared" si="17"/>
@@ -3985,10 +3985,10 @@
       </c>
       <c r="AV27" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW27" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4061,7 +4061,7 @@
         <v/>
       </c>
       <c r="AS28" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT28" s="45" t="str">
         <f t="shared" si="17"/>
@@ -4073,10 +4073,10 @@
       </c>
       <c r="AV28" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW28" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4149,7 +4149,7 @@
         <v/>
       </c>
       <c r="AS29" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT29" s="45" t="str">
         <f t="shared" si="17"/>
@@ -4161,10 +4161,10 @@
       </c>
       <c r="AV29" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW29" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4237,7 +4237,7 @@
         <v/>
       </c>
       <c r="AS30" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT30" s="45" t="str">
         <f t="shared" si="17"/>
@@ -4249,10 +4249,10 @@
       </c>
       <c r="AV30" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW30" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4325,7 +4325,7 @@
         <v/>
       </c>
       <c r="AS31" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT31" s="45" t="str">
         <f t="shared" si="17"/>
@@ -4337,10 +4337,10 @@
       </c>
       <c r="AV31" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW31" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4413,7 +4413,7 @@
         <v/>
       </c>
       <c r="AS32" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT32" s="45" t="str">
         <f t="shared" si="17"/>
@@ -4425,10 +4425,10 @@
       </c>
       <c r="AV32" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW32" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="33" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4503,7 +4503,7 @@
         <v/>
       </c>
       <c r="AS33" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT33" s="45" t="str">
         <f t="shared" si="17"/>
@@ -4515,10 +4515,10 @@
       </c>
       <c r="AV33" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW33" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="34" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4593,7 +4593,7 @@
         <v/>
       </c>
       <c r="AS34" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT34" s="45" t="str">
         <f t="shared" si="17"/>
@@ -4605,10 +4605,10 @@
       </c>
       <c r="AV34" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW34" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="35" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4683,7 +4683,7 @@
         <v/>
       </c>
       <c r="AS35" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT35" s="45" t="str">
         <f t="shared" si="17"/>
@@ -4695,10 +4695,10 @@
       </c>
       <c r="AV35" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW35" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="36" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4773,7 +4773,7 @@
         <v/>
       </c>
       <c r="AS36" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT36" s="45" t="str">
         <f t="shared" si="17"/>
@@ -4785,10 +4785,10 @@
       </c>
       <c r="AV36" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW36" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="37" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4863,7 +4863,7 @@
         <v/>
       </c>
       <c r="AS37" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT37" s="45" t="str">
         <f t="shared" si="17"/>
@@ -4875,10 +4875,10 @@
       </c>
       <c r="AV37" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW37" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="38" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -4953,7 +4953,7 @@
         <v/>
       </c>
       <c r="AS38" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT38" s="45" t="str">
         <f t="shared" si="17"/>
@@ -4965,10 +4965,10 @@
       </c>
       <c r="AV38" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW38" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5043,7 +5043,7 @@
         <v/>
       </c>
       <c r="AS39" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT39" s="45" t="str">
         <f t="shared" si="17"/>
@@ -5055,10 +5055,10 @@
       </c>
       <c r="AV39" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW39" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="40" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5133,7 +5133,7 @@
         <v/>
       </c>
       <c r="AS40" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT40" s="45" t="str">
         <f t="shared" si="17"/>
@@ -5145,10 +5145,10 @@
       </c>
       <c r="AV40" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW40" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="41" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5223,7 +5223,7 @@
         <v/>
       </c>
       <c r="AS41" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT41" s="45" t="str">
         <f t="shared" si="17"/>
@@ -5235,10 +5235,10 @@
       </c>
       <c r="AV41" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW41" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5313,7 +5313,7 @@
         <v/>
       </c>
       <c r="AS42" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT42" s="45" t="str">
         <f t="shared" si="17"/>
@@ -5325,10 +5325,10 @@
       </c>
       <c r="AV42" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW42" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="43" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5403,7 +5403,7 @@
         <v/>
       </c>
       <c r="AS43" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT43" s="45" t="str">
         <f t="shared" si="17"/>
@@ -5415,10 +5415,10 @@
       </c>
       <c r="AV43" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW43" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5493,7 +5493,7 @@
         <v/>
       </c>
       <c r="AS44" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT44" s="45" t="str">
         <f t="shared" si="17"/>
@@ -5505,10 +5505,10 @@
       </c>
       <c r="AV44" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW44" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5583,7 +5583,7 @@
         <v/>
       </c>
       <c r="AS45" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT45" s="45" t="str">
         <f t="shared" si="17"/>
@@ -5595,10 +5595,10 @@
       </c>
       <c r="AV45" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW45" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5673,7 +5673,7 @@
         <v/>
       </c>
       <c r="AS46" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT46" s="45" t="str">
         <f t="shared" si="17"/>
@@ -5685,10 +5685,10 @@
       </c>
       <c r="AV46" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW46" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5763,7 +5763,7 @@
         <v/>
       </c>
       <c r="AS47" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT47" s="45" t="str">
         <f t="shared" si="17"/>
@@ -5775,10 +5775,10 @@
       </c>
       <c r="AV47" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW47" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5853,7 +5853,7 @@
         <v/>
       </c>
       <c r="AS48" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT48" s="45" t="str">
         <f t="shared" si="17"/>
@@ -5865,10 +5865,10 @@
       </c>
       <c r="AV48" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW48" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -5943,7 +5943,7 @@
         <v/>
       </c>
       <c r="AS49" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT49" s="45" t="str">
         <f t="shared" si="17"/>
@@ -5955,10 +5955,10 @@
       </c>
       <c r="AV49" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW49" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="50" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6033,7 +6033,7 @@
         <v/>
       </c>
       <c r="AS50" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT50" s="45" t="str">
         <f t="shared" si="17"/>
@@ -6045,10 +6045,10 @@
       </c>
       <c r="AV50" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW50" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="51" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6123,7 +6123,7 @@
         <v/>
       </c>
       <c r="AS51" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT51" s="45" t="str">
         <f t="shared" si="17"/>
@@ -6135,10 +6135,10 @@
       </c>
       <c r="AV51" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW51" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="52" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6213,7 +6213,7 @@
         <v/>
       </c>
       <c r="AS52" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT52" s="45" t="str">
         <f t="shared" si="17"/>
@@ -6225,10 +6225,10 @@
       </c>
       <c r="AV52" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW52" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="53" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6303,7 +6303,7 @@
         <v/>
       </c>
       <c r="AS53" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT53" s="45" t="str">
         <f t="shared" si="17"/>
@@ -6315,10 +6315,10 @@
       </c>
       <c r="AV53" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW53" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="54" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6393,7 +6393,7 @@
         <v/>
       </c>
       <c r="AS54" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT54" s="45" t="str">
         <f t="shared" si="17"/>
@@ -6405,10 +6405,10 @@
       </c>
       <c r="AV54" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW54" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6483,7 +6483,7 @@
         <v/>
       </c>
       <c r="AS55" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT55" s="45" t="str">
         <f t="shared" si="17"/>
@@ -6495,10 +6495,10 @@
       </c>
       <c r="AV55" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW55" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6573,7 +6573,7 @@
         <v/>
       </c>
       <c r="AS56" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT56" s="45" t="str">
         <f t="shared" si="17"/>
@@ -6585,10 +6585,10 @@
       </c>
       <c r="AV56" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW56" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="57" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6663,7 +6663,7 @@
         <v/>
       </c>
       <c r="AS57" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT57" s="45" t="str">
         <f t="shared" si="17"/>
@@ -6675,10 +6675,10 @@
       </c>
       <c r="AV57" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW57" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="58" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6753,7 +6753,7 @@
         <v/>
       </c>
       <c r="AS58" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT58" s="45" t="str">
         <f t="shared" si="17"/>
@@ -6765,10 +6765,10 @@
       </c>
       <c r="AV58" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW58" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="59" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6843,7 +6843,7 @@
         <v/>
       </c>
       <c r="AS59" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT59" s="45" t="str">
         <f t="shared" si="17"/>
@@ -6855,10 +6855,10 @@
       </c>
       <c r="AV59" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW59" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -6933,7 +6933,7 @@
         <v/>
       </c>
       <c r="AS60" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT60" s="45" t="str">
         <f t="shared" si="17"/>
@@ -6945,10 +6945,10 @@
       </c>
       <c r="AV60" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW60" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7023,7 +7023,7 @@
         <v/>
       </c>
       <c r="AS61" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT61" s="45" t="str">
         <f t="shared" si="17"/>
@@ -7035,10 +7035,10 @@
       </c>
       <c r="AV61" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW61" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7113,7 +7113,7 @@
         <v/>
       </c>
       <c r="AS62" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT62" s="45" t="str">
         <f t="shared" si="17"/>
@@ -7125,10 +7125,10 @@
       </c>
       <c r="AV62" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW62" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="63" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7203,7 +7203,7 @@
         <v/>
       </c>
       <c r="AS63" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT63" s="45" t="str">
         <f t="shared" si="17"/>
@@ -7215,10 +7215,10 @@
       </c>
       <c r="AV63" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW63" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7293,7 +7293,7 @@
         <v/>
       </c>
       <c r="AS64" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT64" s="45" t="str">
         <f t="shared" si="17"/>
@@ -7305,10 +7305,10 @@
       </c>
       <c r="AV64" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW64" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7383,7 +7383,7 @@
         <v/>
       </c>
       <c r="AS65" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT65" s="45" t="str">
         <f t="shared" si="17"/>
@@ -7395,10 +7395,10 @@
       </c>
       <c r="AV65" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW65" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7473,7 +7473,7 @@
         <v/>
       </c>
       <c r="AS66" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT66" s="45" t="str">
         <f t="shared" si="17"/>
@@ -7485,10 +7485,10 @@
       </c>
       <c r="AV66" s="7" t="str">
         <f t="shared" si="19"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW66" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7561,7 +7561,7 @@
         <v/>
       </c>
       <c r="AS67" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT67" s="45" t="str">
         <f t="shared" ref="AT67:AT130" si="58">CONCATENATE(AB67,AC67,AD67,AE67,AF67,AG67,AH67,AI67,AJ67,AK67,AL67,AM67,AN67,AO67,AP67,AQ67,AR67,AS67)</f>
@@ -7573,10 +7573,10 @@
       </c>
       <c r="AV67" s="7" t="str">
         <f t="shared" ref="AV67:AV130" si="60">IF(A67&lt;&gt;"",CONCATENATE(IF(AV66&lt;&gt;"",CONCATENATE(AV66,","),""),AT67),AV66)</f>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW67" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7649,7 +7649,7 @@
         <v/>
       </c>
       <c r="AS68" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT68" s="45" t="str">
         <f t="shared" si="58"/>
@@ -7661,10 +7661,10 @@
       </c>
       <c r="AV68" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW68" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7737,7 +7737,7 @@
         <v/>
       </c>
       <c r="AS69" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT69" s="45" t="str">
         <f t="shared" si="58"/>
@@ -7749,10 +7749,10 @@
       </c>
       <c r="AV69" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW69" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7827,7 +7827,7 @@
         <v/>
       </c>
       <c r="AS70" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT70" s="45" t="str">
         <f t="shared" si="58"/>
@@ -7839,10 +7839,10 @@
       </c>
       <c r="AV70" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW70" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="71" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -7917,7 +7917,7 @@
         <v/>
       </c>
       <c r="AS71" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT71" s="45" t="str">
         <f t="shared" si="58"/>
@@ -7929,10 +7929,10 @@
       </c>
       <c r="AV71" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW71" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8007,7 +8007,7 @@
         <v/>
       </c>
       <c r="AS72" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT72" s="45" t="str">
         <f t="shared" si="58"/>
@@ -8019,10 +8019,10 @@
       </c>
       <c r="AV72" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW72" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="73" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8097,7 +8097,7 @@
         <v/>
       </c>
       <c r="AS73" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT73" s="45" t="str">
         <f t="shared" si="58"/>
@@ -8109,10 +8109,10 @@
       </c>
       <c r="AV73" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW73" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="74" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8187,7 +8187,7 @@
         <v/>
       </c>
       <c r="AS74" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT74" s="45" t="str">
         <f t="shared" si="58"/>
@@ -8199,10 +8199,10 @@
       </c>
       <c r="AV74" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW74" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8277,7 +8277,7 @@
         <v/>
       </c>
       <c r="AS75" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT75" s="45" t="str">
         <f t="shared" si="58"/>
@@ -8289,10 +8289,10 @@
       </c>
       <c r="AV75" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW75" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8367,7 +8367,7 @@
         <v/>
       </c>
       <c r="AS76" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT76" s="45" t="str">
         <f t="shared" si="58"/>
@@ -8379,10 +8379,10 @@
       </c>
       <c r="AV76" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW76" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8457,7 +8457,7 @@
         <v/>
       </c>
       <c r="AS77" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT77" s="45" t="str">
         <f t="shared" si="58"/>
@@ -8469,10 +8469,10 @@
       </c>
       <c r="AV77" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW77" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8547,7 +8547,7 @@
         <v/>
       </c>
       <c r="AS78" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT78" s="45" t="str">
         <f t="shared" si="58"/>
@@ -8559,10 +8559,10 @@
       </c>
       <c r="AV78" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW78" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8637,7 +8637,7 @@
         <v/>
       </c>
       <c r="AS79" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT79" s="45" t="str">
         <f t="shared" si="58"/>
@@ -8649,10 +8649,10 @@
       </c>
       <c r="AV79" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW79" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8727,7 +8727,7 @@
         <v/>
       </c>
       <c r="AS80" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT80" s="45" t="str">
         <f t="shared" si="58"/>
@@ -8739,10 +8739,10 @@
       </c>
       <c r="AV80" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW80" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8817,7 +8817,7 @@
         <v/>
       </c>
       <c r="AS81" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT81" s="45" t="str">
         <f t="shared" si="58"/>
@@ -8829,10 +8829,10 @@
       </c>
       <c r="AV81" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW81" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="82" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8907,7 +8907,7 @@
         <v/>
       </c>
       <c r="AS82" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT82" s="45" t="str">
         <f t="shared" si="58"/>
@@ -8919,10 +8919,10 @@
       </c>
       <c r="AV82" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW82" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -8997,7 +8997,7 @@
         <v/>
       </c>
       <c r="AS83" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT83" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9009,10 +9009,10 @@
       </c>
       <c r="AV83" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW83" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9087,7 +9087,7 @@
         <v/>
       </c>
       <c r="AS84" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT84" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9099,10 +9099,10 @@
       </c>
       <c r="AV84" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW84" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9177,7 +9177,7 @@
         <v/>
       </c>
       <c r="AS85" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT85" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9189,10 +9189,10 @@
       </c>
       <c r="AV85" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW85" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9267,7 +9267,7 @@
         <v/>
       </c>
       <c r="AS86" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT86" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9279,10 +9279,10 @@
       </c>
       <c r="AV86" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW86" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="87" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9357,7 +9357,7 @@
         <v/>
       </c>
       <c r="AS87" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT87" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9369,10 +9369,10 @@
       </c>
       <c r="AV87" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW87" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="88" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9447,7 +9447,7 @@
         <v/>
       </c>
       <c r="AS88" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT88" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9459,10 +9459,10 @@
       </c>
       <c r="AV88" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW88" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9537,7 +9537,7 @@
         <v/>
       </c>
       <c r="AS89" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT89" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9549,10 +9549,10 @@
       </c>
       <c r="AV89" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW89" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9627,7 +9627,7 @@
         <v/>
       </c>
       <c r="AS90" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT90" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9639,10 +9639,10 @@
       </c>
       <c r="AV90" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW90" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9717,7 +9717,7 @@
         <v/>
       </c>
       <c r="AS91" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT91" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9729,10 +9729,10 @@
       </c>
       <c r="AV91" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW91" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9807,7 +9807,7 @@
         <v/>
       </c>
       <c r="AS92" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT92" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9819,10 +9819,10 @@
       </c>
       <c r="AV92" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW92" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="93" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9897,7 +9897,7 @@
         <v/>
       </c>
       <c r="AS93" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT93" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9909,10 +9909,10 @@
       </c>
       <c r="AV93" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW93" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -9987,7 +9987,7 @@
         <v/>
       </c>
       <c r="AS94" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT94" s="45" t="str">
         <f t="shared" si="58"/>
@@ -9999,10 +9999,10 @@
       </c>
       <c r="AV94" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW94" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="95" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10077,7 +10077,7 @@
         <v/>
       </c>
       <c r="AS95" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT95" s="45" t="str">
         <f t="shared" si="58"/>
@@ -10089,10 +10089,10 @@
       </c>
       <c r="AV95" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW95" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10167,7 +10167,7 @@
         <v/>
       </c>
       <c r="AS96" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT96" s="45" t="str">
         <f t="shared" si="58"/>
@@ -10179,10 +10179,10 @@
       </c>
       <c r="AV96" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW96" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10257,7 +10257,7 @@
         <v/>
       </c>
       <c r="AS97" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT97" s="45" t="str">
         <f t="shared" si="58"/>
@@ -10269,10 +10269,10 @@
       </c>
       <c r="AV97" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW97" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10347,7 +10347,7 @@
         <v/>
       </c>
       <c r="AS98" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT98" s="45" t="str">
         <f t="shared" si="58"/>
@@ -10359,10 +10359,10 @@
       </c>
       <c r="AV98" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW98" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10437,7 +10437,7 @@
         <v/>
       </c>
       <c r="AS99" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT99" s="45" t="str">
         <f t="shared" si="58"/>
@@ -10449,10 +10449,10 @@
       </c>
       <c r="AV99" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW99" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10527,7 +10527,7 @@
         <v/>
       </c>
       <c r="AS100" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT100" s="45" t="str">
         <f t="shared" si="58"/>
@@ -10539,10 +10539,10 @@
       </c>
       <c r="AV100" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW100" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10617,7 +10617,7 @@
         <v/>
       </c>
       <c r="AS101" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT101" s="45" t="str">
         <f t="shared" si="58"/>
@@ -10629,10 +10629,10 @@
       </c>
       <c r="AV101" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW101" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10707,7 +10707,7 @@
         <v/>
       </c>
       <c r="AS102" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT102" s="45" t="str">
         <f t="shared" si="58"/>
@@ -10719,10 +10719,10 @@
       </c>
       <c r="AV102" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW102" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10797,7 +10797,7 @@
         <v/>
       </c>
       <c r="AS103" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT103" s="45" t="str">
         <f t="shared" si="58"/>
@@ -10809,10 +10809,10 @@
       </c>
       <c r="AV103" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW103" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10887,7 +10887,7 @@
         <v/>
       </c>
       <c r="AS104" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT104" s="45" t="str">
         <f t="shared" si="58"/>
@@ -10899,10 +10899,10 @@
       </c>
       <c r="AV104" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW104" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -10977,7 +10977,7 @@
         <v/>
       </c>
       <c r="AS105" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT105" s="45" t="str">
         <f t="shared" si="58"/>
@@ -10989,10 +10989,10 @@
       </c>
       <c r="AV105" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW105" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -11067,7 +11067,7 @@
         <v/>
       </c>
       <c r="AS106" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT106" s="45" t="str">
         <f t="shared" si="58"/>
@@ -11079,10 +11079,10 @@
       </c>
       <c r="AV106" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW106" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -11157,7 +11157,7 @@
         <v/>
       </c>
       <c r="AS107" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT107" s="45" t="str">
         <f t="shared" si="58"/>
@@ -11169,10 +11169,10 @@
       </c>
       <c r="AV107" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW107" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -11247,7 +11247,7 @@
         <v/>
       </c>
       <c r="AS108" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT108" s="45" t="str">
         <f t="shared" si="58"/>
@@ -11259,10 +11259,10 @@
       </c>
       <c r="AV108" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW108" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -11337,7 +11337,7 @@
         <v/>
       </c>
       <c r="AS109" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT109" s="45" t="str">
         <f t="shared" si="58"/>
@@ -11349,10 +11349,10 @@
       </c>
       <c r="AV109" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW109" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -11427,7 +11427,7 @@
         <v/>
       </c>
       <c r="AS110" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT110" s="45" t="str">
         <f t="shared" si="58"/>
@@ -11439,10 +11439,10 @@
       </c>
       <c r="AV110" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW110" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -11517,7 +11517,7 @@
         <v/>
       </c>
       <c r="AS111" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT111" s="45" t="str">
         <f t="shared" si="58"/>
@@ -11529,10 +11529,10 @@
       </c>
       <c r="AV111" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW111" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -11607,7 +11607,7 @@
         <v/>
       </c>
       <c r="AS112" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT112" s="45" t="str">
         <f t="shared" si="58"/>
@@ -11619,10 +11619,10 @@
       </c>
       <c r="AV112" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW112" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -11697,7 +11697,7 @@
         <v/>
       </c>
       <c r="AS113" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT113" s="45" t="str">
         <f t="shared" si="58"/>
@@ -11709,10 +11709,10 @@
       </c>
       <c r="AV113" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW113" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -11785,7 +11785,7 @@
         <v/>
       </c>
       <c r="AS114" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT114" s="45" t="str">
         <f t="shared" si="58"/>
@@ -11797,10 +11797,10 @@
       </c>
       <c r="AV114" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW114" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -11873,7 +11873,7 @@
         <v/>
       </c>
       <c r="AS115" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT115" s="45" t="str">
         <f t="shared" si="58"/>
@@ -11885,10 +11885,10 @@
       </c>
       <c r="AV115" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW115" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -11963,7 +11963,7 @@
         <v/>
       </c>
       <c r="AS116" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT116" s="45" t="str">
         <f t="shared" si="58"/>
@@ -11975,10 +11975,10 @@
       </c>
       <c r="AV116" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW116" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -12051,7 +12051,7 @@
         <v/>
       </c>
       <c r="AS117" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT117" s="45" t="str">
         <f t="shared" si="58"/>
@@ -12063,10 +12063,10 @@
       </c>
       <c r="AV117" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW117" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -12141,7 +12141,7 @@
         <v/>
       </c>
       <c r="AS118" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT118" s="45" t="str">
         <f t="shared" si="58"/>
@@ -12153,10 +12153,10 @@
       </c>
       <c r="AV118" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW118" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -12231,7 +12231,7 @@
         <v/>
       </c>
       <c r="AS119" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT119" s="45" t="str">
         <f t="shared" si="58"/>
@@ -12243,10 +12243,10 @@
       </c>
       <c r="AV119" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW119" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -12321,7 +12321,7 @@
         <v/>
       </c>
       <c r="AS120" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT120" s="45" t="str">
         <f t="shared" si="58"/>
@@ -12333,10 +12333,10 @@
       </c>
       <c r="AV120" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW120" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -12411,7 +12411,7 @@
         <v/>
       </c>
       <c r="AS121" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT121" s="45" t="str">
         <f t="shared" si="58"/>
@@ -12423,10 +12423,10 @@
       </c>
       <c r="AV121" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW121" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -12501,7 +12501,7 @@
         <v/>
       </c>
       <c r="AS122" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT122" s="45" t="str">
         <f t="shared" si="58"/>
@@ -12513,10 +12513,10 @@
       </c>
       <c r="AV122" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW122" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -12591,7 +12591,7 @@
         <v/>
       </c>
       <c r="AS123" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT123" s="45" t="str">
         <f t="shared" si="58"/>
@@ -12603,10 +12603,10 @@
       </c>
       <c r="AV123" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW123" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -12681,7 +12681,7 @@
         <v/>
       </c>
       <c r="AS124" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT124" s="45" t="str">
         <f t="shared" si="58"/>
@@ -12693,10 +12693,10 @@
       </c>
       <c r="AV124" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW124" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -12771,7 +12771,7 @@
         <v/>
       </c>
       <c r="AS125" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT125" s="45" t="str">
         <f t="shared" si="58"/>
@@ -12783,10 +12783,10 @@
       </c>
       <c r="AV125" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW125" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -12861,7 +12861,7 @@
         <v/>
       </c>
       <c r="AS126" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT126" s="45" t="str">
         <f t="shared" si="58"/>
@@ -12873,10 +12873,10 @@
       </c>
       <c r="AV126" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW126" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -12951,7 +12951,7 @@
         <v/>
       </c>
       <c r="AS127" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT127" s="45" t="str">
         <f t="shared" si="58"/>
@@ -12963,10 +12963,10 @@
       </c>
       <c r="AV127" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW127" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -13041,7 +13041,7 @@
         <v/>
       </c>
       <c r="AS128" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT128" s="45" t="str">
         <f t="shared" si="58"/>
@@ -13053,10 +13053,10 @@
       </c>
       <c r="AV128" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW128" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -13131,7 +13131,7 @@
         <v/>
       </c>
       <c r="AS129" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT129" s="45" t="str">
         <f t="shared" si="58"/>
@@ -13143,10 +13143,10 @@
       </c>
       <c r="AV129" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW129" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -13221,7 +13221,7 @@
         <v/>
       </c>
       <c r="AS130" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT130" s="45" t="str">
         <f t="shared" si="58"/>
@@ -13233,10 +13233,10 @@
       </c>
       <c r="AV130" s="7" t="str">
         <f t="shared" si="60"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW130" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -13311,7 +13311,7 @@
         <v/>
       </c>
       <c r="AS131" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT131" s="45" t="str">
         <f t="shared" ref="AT131:AT194" si="78">CONCATENATE(AB131,AC131,AD131,AE131,AF131,AG131,AH131,AI131,AJ131,AK131,AL131,AM131,AN131,AO131,AP131,AQ131,AR131,AS131)</f>
@@ -13323,10 +13323,10 @@
       </c>
       <c r="AV131" s="7" t="str">
         <f t="shared" ref="AV131:AV194" si="80">IF(A131&lt;&gt;"",CONCATENATE(IF(AV130&lt;&gt;"",CONCATENATE(AV130,","),""),AT131),AV130)</f>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW131" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -13401,7 +13401,7 @@
         <v/>
       </c>
       <c r="AS132" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT132" s="45" t="str">
         <f t="shared" si="78"/>
@@ -13413,10 +13413,10 @@
       </c>
       <c r="AV132" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW132" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="133" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -13491,7 +13491,7 @@
         <v/>
       </c>
       <c r="AS133" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT133" s="45" t="str">
         <f t="shared" si="78"/>
@@ -13503,10 +13503,10 @@
       </c>
       <c r="AV133" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW133" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="134" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -13581,7 +13581,7 @@
         <v/>
       </c>
       <c r="AS134" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT134" s="45" t="str">
         <f t="shared" si="78"/>
@@ -13593,10 +13593,10 @@
       </c>
       <c r="AV134" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW134" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="135" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -13671,7 +13671,7 @@
         <v/>
       </c>
       <c r="AS135" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT135" s="45" t="str">
         <f t="shared" si="78"/>
@@ -13683,10 +13683,10 @@
       </c>
       <c r="AV135" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW135" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="136" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -13761,7 +13761,7 @@
         <v/>
       </c>
       <c r="AS136" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT136" s="45" t="str">
         <f t="shared" si="78"/>
@@ -13773,10 +13773,10 @@
       </c>
       <c r="AV136" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW136" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="137" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -13851,7 +13851,7 @@
         <v/>
       </c>
       <c r="AS137" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT137" s="45" t="str">
         <f t="shared" si="78"/>
@@ -13863,10 +13863,10 @@
       </c>
       <c r="AV137" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW137" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="138" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -13941,7 +13941,7 @@
         <v/>
       </c>
       <c r="AS138" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT138" s="45" t="str">
         <f t="shared" si="78"/>
@@ -13953,10 +13953,10 @@
       </c>
       <c r="AV138" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW138" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="139" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14031,7 +14031,7 @@
         <v/>
       </c>
       <c r="AS139" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT139" s="45" t="str">
         <f t="shared" si="78"/>
@@ -14043,10 +14043,10 @@
       </c>
       <c r="AV139" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW139" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="140" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14121,7 +14121,7 @@
         <v/>
       </c>
       <c r="AS140" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT140" s="45" t="str">
         <f t="shared" si="78"/>
@@ -14133,10 +14133,10 @@
       </c>
       <c r="AV140" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW140" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="141" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14211,7 +14211,7 @@
         <v/>
       </c>
       <c r="AS141" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT141" s="45" t="str">
         <f t="shared" si="78"/>
@@ -14223,10 +14223,10 @@
       </c>
       <c r="AV141" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW141" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="142" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14301,7 +14301,7 @@
         <v/>
       </c>
       <c r="AS142" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT142" s="45" t="str">
         <f t="shared" si="78"/>
@@ -14313,10 +14313,10 @@
       </c>
       <c r="AV142" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW142" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14391,7 +14391,7 @@
         <v/>
       </c>
       <c r="AS143" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT143" s="45" t="str">
         <f t="shared" si="78"/>
@@ -14403,10 +14403,10 @@
       </c>
       <c r="AV143" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW143" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="144" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14481,7 +14481,7 @@
         <v/>
       </c>
       <c r="AS144" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT144" s="45" t="str">
         <f t="shared" si="78"/>
@@ -14493,10 +14493,10 @@
       </c>
       <c r="AV144" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW144" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14571,7 +14571,7 @@
         <v/>
       </c>
       <c r="AS145" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT145" s="45" t="str">
         <f t="shared" si="78"/>
@@ -14583,10 +14583,10 @@
       </c>
       <c r="AV145" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW145" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="146" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14661,7 +14661,7 @@
         <v/>
       </c>
       <c r="AS146" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT146" s="45" t="str">
         <f t="shared" si="78"/>
@@ -14673,10 +14673,10 @@
       </c>
       <c r="AV146" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW146" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14751,7 +14751,7 @@
         <v/>
       </c>
       <c r="AS147" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT147" s="45" t="str">
         <f t="shared" si="78"/>
@@ -14763,10 +14763,10 @@
       </c>
       <c r="AV147" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW147" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14841,7 +14841,7 @@
         <v/>
       </c>
       <c r="AS148" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT148" s="45" t="str">
         <f t="shared" si="78"/>
@@ -14853,10 +14853,10 @@
       </c>
       <c r="AV148" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW148" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -14931,7 +14931,7 @@
         <v/>
       </c>
       <c r="AS149" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT149" s="45" t="str">
         <f t="shared" si="78"/>
@@ -14943,10 +14943,10 @@
       </c>
       <c r="AV149" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW149" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15021,7 +15021,7 @@
         <v/>
       </c>
       <c r="AS150" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT150" s="45" t="str">
         <f t="shared" si="78"/>
@@ -15033,10 +15033,10 @@
       </c>
       <c r="AV150" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW150" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15111,7 +15111,7 @@
         <v/>
       </c>
       <c r="AS151" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT151" s="45" t="str">
         <f t="shared" si="78"/>
@@ -15123,10 +15123,10 @@
       </c>
       <c r="AV151" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW151" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="152" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15201,7 +15201,7 @@
         <v/>
       </c>
       <c r="AS152" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT152" s="45" t="str">
         <f t="shared" si="78"/>
@@ -15213,10 +15213,10 @@
       </c>
       <c r="AV152" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW152" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15291,7 +15291,7 @@
         <v/>
       </c>
       <c r="AS153" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT153" s="45" t="str">
         <f t="shared" si="78"/>
@@ -15303,10 +15303,10 @@
       </c>
       <c r="AV153" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW153" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="154" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15381,7 +15381,7 @@
         <v/>
       </c>
       <c r="AS154" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT154" s="45" t="str">
         <f t="shared" si="78"/>
@@ -15393,10 +15393,10 @@
       </c>
       <c r="AV154" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW154" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="155" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15471,7 +15471,7 @@
         <v/>
       </c>
       <c r="AS155" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT155" s="45" t="str">
         <f t="shared" si="78"/>
@@ -15483,10 +15483,10 @@
       </c>
       <c r="AV155" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW155" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="156" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15561,7 +15561,7 @@
         <v/>
       </c>
       <c r="AS156" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT156" s="45" t="str">
         <f t="shared" si="78"/>
@@ -15573,10 +15573,10 @@
       </c>
       <c r="AV156" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW156" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="157" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15651,7 +15651,7 @@
         <v/>
       </c>
       <c r="AS157" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT157" s="45" t="str">
         <f t="shared" si="78"/>
@@ -15663,10 +15663,10 @@
       </c>
       <c r="AV157" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW157" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="158" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15741,7 +15741,7 @@
         <v/>
       </c>
       <c r="AS158" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT158" s="45" t="str">
         <f t="shared" si="78"/>
@@ -15753,10 +15753,10 @@
       </c>
       <c r="AV158" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW158" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="159" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15831,7 +15831,7 @@
         <v/>
       </c>
       <c r="AS159" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT159" s="45" t="str">
         <f t="shared" si="78"/>
@@ -15843,10 +15843,10 @@
       </c>
       <c r="AV159" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW159" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -15921,7 +15921,7 @@
         <v/>
       </c>
       <c r="AS160" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT160" s="45" t="str">
         <f t="shared" si="78"/>
@@ -15933,10 +15933,10 @@
       </c>
       <c r="AV160" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW160" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="161" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16011,7 +16011,7 @@
         <v/>
       </c>
       <c r="AS161" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT161" s="45" t="str">
         <f t="shared" si="78"/>
@@ -16023,10 +16023,10 @@
       </c>
       <c r="AV161" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW161" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16101,7 +16101,7 @@
         <v/>
       </c>
       <c r="AS162" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT162" s="45" t="str">
         <f t="shared" si="78"/>
@@ -16113,10 +16113,10 @@
       </c>
       <c r="AV162" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW162" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="163" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16191,7 +16191,7 @@
         <v/>
       </c>
       <c r="AS163" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT163" s="45" t="str">
         <f t="shared" si="78"/>
@@ -16203,10 +16203,10 @@
       </c>
       <c r="AV163" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW163" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="164" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16281,7 +16281,7 @@
         <v/>
       </c>
       <c r="AS164" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT164" s="45" t="str">
         <f t="shared" si="78"/>
@@ -16293,10 +16293,10 @@
       </c>
       <c r="AV164" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW164" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="165" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16371,7 +16371,7 @@
         <v/>
       </c>
       <c r="AS165" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT165" s="45" t="str">
         <f t="shared" si="78"/>
@@ -16383,10 +16383,10 @@
       </c>
       <c r="AV165" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW165" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="166" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16461,7 +16461,7 @@
         <v/>
       </c>
       <c r="AS166" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT166" s="45" t="str">
         <f t="shared" si="78"/>
@@ -16473,10 +16473,10 @@
       </c>
       <c r="AV166" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW166" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="167" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16551,7 +16551,7 @@
         <v/>
       </c>
       <c r="AS167" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT167" s="45" t="str">
         <f t="shared" si="78"/>
@@ -16563,10 +16563,10 @@
       </c>
       <c r="AV167" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW167" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="168" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16641,7 +16641,7 @@
         <v/>
       </c>
       <c r="AS168" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT168" s="45" t="str">
         <f t="shared" si="78"/>
@@ -16653,10 +16653,10 @@
       </c>
       <c r="AV168" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW168" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="169" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16729,7 +16729,7 @@
         <v/>
       </c>
       <c r="AS169" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT169" s="45" t="str">
         <f t="shared" si="78"/>
@@ -16741,10 +16741,10 @@
       </c>
       <c r="AV169" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW169" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="170" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16817,7 +16817,7 @@
         <v/>
       </c>
       <c r="AS170" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT170" s="45" t="str">
         <f t="shared" si="78"/>
@@ -16829,10 +16829,10 @@
       </c>
       <c r="AV170" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW170" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="171" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16905,7 +16905,7 @@
         <v/>
       </c>
       <c r="AS171" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT171" s="45" t="str">
         <f t="shared" si="78"/>
@@ -16917,10 +16917,10 @@
       </c>
       <c r="AV171" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW171" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="172" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -16993,7 +16993,7 @@
         <v/>
       </c>
       <c r="AS172" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT172" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17005,10 +17005,10 @@
       </c>
       <c r="AV172" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW172" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="173" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -17081,7 +17081,7 @@
         <v/>
       </c>
       <c r="AS173" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT173" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17093,10 +17093,10 @@
       </c>
       <c r="AV173" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW173" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="174" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -17169,7 +17169,7 @@
         <v/>
       </c>
       <c r="AS174" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT174" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17181,10 +17181,10 @@
       </c>
       <c r="AV174" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW174" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="175" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -17257,7 +17257,7 @@
         <v/>
       </c>
       <c r="AS175" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT175" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17269,10 +17269,10 @@
       </c>
       <c r="AV175" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW175" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="176" spans="2:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -17345,7 +17345,7 @@
         <v/>
       </c>
       <c r="AS176" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT176" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17357,10 +17357,10 @@
       </c>
       <c r="AV176" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW176" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="177" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -17433,7 +17433,7 @@
         <v/>
       </c>
       <c r="AS177" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT177" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17445,10 +17445,10 @@
       </c>
       <c r="AV177" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW177" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="178" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -17521,7 +17521,7 @@
         <v/>
       </c>
       <c r="AS178" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT178" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17533,10 +17533,10 @@
       </c>
       <c r="AV178" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW178" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="179" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -17609,7 +17609,7 @@
         <v/>
       </c>
       <c r="AS179" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT179" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17621,10 +17621,10 @@
       </c>
       <c r="AV179" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW179" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="180" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -17697,7 +17697,7 @@
         <v/>
       </c>
       <c r="AS180" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT180" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17709,10 +17709,10 @@
       </c>
       <c r="AV180" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW180" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="181" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -17785,7 +17785,7 @@
         <v/>
       </c>
       <c r="AS181" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT181" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17797,10 +17797,10 @@
       </c>
       <c r="AV181" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW181" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="182" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -17873,7 +17873,7 @@
         <v/>
       </c>
       <c r="AS182" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT182" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17885,10 +17885,10 @@
       </c>
       <c r="AV182" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW182" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="183" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -17961,7 +17961,7 @@
         <v/>
       </c>
       <c r="AS183" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT183" s="45" t="str">
         <f t="shared" si="78"/>
@@ -17973,10 +17973,10 @@
       </c>
       <c r="AV183" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW183" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="184" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18049,7 +18049,7 @@
         <v/>
       </c>
       <c r="AS184" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT184" s="45" t="str">
         <f t="shared" si="78"/>
@@ -18061,10 +18061,10 @@
       </c>
       <c r="AV184" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW184" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="185" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18137,7 +18137,7 @@
         <v/>
       </c>
       <c r="AS185" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT185" s="45" t="str">
         <f t="shared" si="78"/>
@@ -18149,10 +18149,10 @@
       </c>
       <c r="AV185" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW185" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="186" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18225,7 +18225,7 @@
         <v/>
       </c>
       <c r="AS186" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT186" s="45" t="str">
         <f t="shared" si="78"/>
@@ -18237,10 +18237,10 @@
       </c>
       <c r="AV186" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW186" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="187" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18313,7 +18313,7 @@
         <v/>
       </c>
       <c r="AS187" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT187" s="45" t="str">
         <f t="shared" si="78"/>
@@ -18325,10 +18325,10 @@
       </c>
       <c r="AV187" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW187" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="188" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18401,7 +18401,7 @@
         <v/>
       </c>
       <c r="AS188" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT188" s="45" t="str">
         <f t="shared" si="78"/>
@@ -18413,10 +18413,10 @@
       </c>
       <c r="AV188" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW188" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="189" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18489,7 +18489,7 @@
         <v/>
       </c>
       <c r="AS189" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT189" s="45" t="str">
         <f t="shared" si="78"/>
@@ -18501,10 +18501,10 @@
       </c>
       <c r="AV189" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW189" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="190" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18577,7 +18577,7 @@
         <v/>
       </c>
       <c r="AS190" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT190" s="45" t="str">
         <f t="shared" si="78"/>
@@ -18589,10 +18589,10 @@
       </c>
       <c r="AV190" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW190" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="191" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18665,7 +18665,7 @@
         <v/>
       </c>
       <c r="AS191" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT191" s="45" t="str">
         <f t="shared" si="78"/>
@@ -18677,10 +18677,10 @@
       </c>
       <c r="AV191" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW191" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="192" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18753,7 +18753,7 @@
         <v/>
       </c>
       <c r="AS192" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT192" s="45" t="str">
         <f t="shared" si="78"/>
@@ -18765,10 +18765,10 @@
       </c>
       <c r="AV192" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW192" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="193" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18841,7 +18841,7 @@
         <v/>
       </c>
       <c r="AS193" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT193" s="45" t="str">
         <f t="shared" si="78"/>
@@ -18853,10 +18853,10 @@
       </c>
       <c r="AV193" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW193" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="194" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -18929,7 +18929,7 @@
         <v/>
       </c>
       <c r="AS194" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT194" s="45" t="str">
         <f t="shared" si="78"/>
@@ -18941,10 +18941,10 @@
       </c>
       <c r="AV194" s="7" t="str">
         <f t="shared" si="80"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW194" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="195" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19017,7 +19017,7 @@
         <v/>
       </c>
       <c r="AS195" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT195" s="45" t="str">
         <f t="shared" ref="AT195:AT201" si="98">CONCATENATE(AB195,AC195,AD195,AE195,AF195,AG195,AH195,AI195,AJ195,AK195,AL195,AM195,AN195,AO195,AP195,AQ195,AR195,AS195)</f>
@@ -19029,10 +19029,10 @@
       </c>
       <c r="AV195" s="7" t="str">
         <f t="shared" ref="AV195:AV201" si="100">IF(A195&lt;&gt;"",CONCATENATE(IF(AV194&lt;&gt;"",CONCATENATE(AV194,","),""),AT195),AV194)</f>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW195" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="196" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19105,7 +19105,7 @@
         <v/>
       </c>
       <c r="AS196" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT196" s="45" t="str">
         <f t="shared" si="98"/>
@@ -19117,10 +19117,10 @@
       </c>
       <c r="AV196" s="7" t="str">
         <f t="shared" si="100"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW196" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="197" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19193,7 +19193,7 @@
         <v/>
       </c>
       <c r="AS197" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT197" s="45" t="str">
         <f t="shared" si="98"/>
@@ -19205,10 +19205,10 @@
       </c>
       <c r="AV197" s="7" t="str">
         <f t="shared" si="100"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW197" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="198" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19281,7 +19281,7 @@
         <v/>
       </c>
       <c r="AS198" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT198" s="45" t="str">
         <f t="shared" si="98"/>
@@ -19293,10 +19293,10 @@
       </c>
       <c r="AV198" s="7" t="str">
         <f t="shared" si="100"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW198" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="199" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19369,7 +19369,7 @@
         <v/>
       </c>
       <c r="AS199" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT199" s="45" t="str">
         <f t="shared" si="98"/>
@@ -19381,10 +19381,10 @@
       </c>
       <c r="AV199" s="7" t="str">
         <f t="shared" si="100"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW199" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="200" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19457,7 +19457,7 @@
         <v/>
       </c>
       <c r="AS200" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT200" s="45" t="str">
         <f t="shared" si="98"/>
@@ -19469,10 +19469,10 @@
       </c>
       <c r="AV200" s="7" t="str">
         <f t="shared" si="100"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW200" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="201" spans="28:49" ht="13.9" customHeight="1" x14ac:dyDescent="0.25">
@@ -19545,7 +19545,7 @@
         <v/>
       </c>
       <c r="AS201" s="45" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AT201" s="45" t="str">
         <f t="shared" si="98"/>
@@ -19557,10 +19557,10 @@
       </c>
       <c r="AV201" s="7" t="str">
         <f t="shared" si="100"/>
-        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "http://www.ontoeng.com/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "http://www.ontoeng.com/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
+        <v>{"id": "default_building", "descr": "Plant building. This is the building hosting a factory and the related facilities.", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcBuilding", "position": [0,0,0], "rotation": [0,0,0]},{"id": "WorkstationTypeA", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC108/TC108.obj", "unit": 0.01}]},{"id": "WorkstationTypeB", "descr": "Machining center", "type": "https://w3id.org/ontoeng/factory#MachineToolType", "representations": [{"file": "models/machines/TC52/tc52.obj", "unit": 0.01}]},{"id": "TrolleyTypeA", "descr": "Manual trolley", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElementType", "representations": [{"file": "models/elements/trolley/trolley.obj", "unit": 0.01}]},{"id": "WS01", "descr": "Workstation 01", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS02", "descr": "Workstation 02", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeA", "position": [0,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "WS03", "descr": "Workstation 03", "type": "https://w3id.org/ontoeng/factory#MachineTool", "model": "WorkstationTypeB", "position": [0,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.1", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.2", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1000], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"},{"id": "Trolley.3", "type": "https://standards.buildingsmart.org/IFC/DEV/IFC4/ADD1/OWL#IfcTransportElement", "model": "TrolleyTypeA", "position": [200,0,-1500], "rotation": [0,1.5707963267949,0], "placementRelTo": "default_building"}</v>
       </c>
       <c r="AW201" s="8" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
